--- a/xlsx/nor_oda_sectors_tenyear.xlsx
+++ b/xlsx/nor_oda_sectors_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.61099342316</v>
+        <v>2.45326847143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>3.83986913426</v>
+        <v>6.03272581594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>5.14166660394</v>
+        <v>4.29609266648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>7.55711454</v>
+        <v>7.877982577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.3050304422</v>
+        <v>1.13443481564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>2.82970859116</v>
+        <v>3.21677367297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.33429072565</v>
+        <v>1.29096432569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>4.21637855675</v>
+        <v>4.09130226171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.81013029796</v>
+        <v>2.47356739629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.40052826546</v>
+        <v>1.61527458248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>2.45326847143</v>
+        <v>2.41958862341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>6.03272581594</v>
+        <v>8.836088016829999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.29609266648</v>
+        <v>3.65950632159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>7.877982577</v>
+        <v>7.932527668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.13443481564</v>
+        <v>0.91403269119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>3.21677367297</v>
+        <v>3.86756710892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.29096432569</v>
+        <v>0.92095812956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>4.09130226171</v>
+        <v>3.57664835417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.47356739629</v>
+        <v>3.07631893247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.61527458248</v>
+        <v>1.58271821248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C22">
-        <v>2.41958862341</v>
+        <v>2.78350685172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C23">
-        <v>8.836088016829999</v>
+        <v>3.69215019363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C24">
-        <v>3.65950632159</v>
+        <v>3.81553508829</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C25">
-        <v>7.932527668</v>
+        <v>8.388406523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.91403269119</v>
+        <v>1.21686871684</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C27">
-        <v>3.86756710892</v>
+        <v>4.5443155969</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.92095812956</v>
+        <v>1.09435309843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C29">
-        <v>3.57664835417</v>
+        <v>3.79707343258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C30">
-        <v>3.07631893247</v>
+        <v>3.02760724759</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -789,12 +789,12 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.58271821248</v>
+        <v>1.7531169387</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.78350685172</v>
+        <v>2.61674835912</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
         </is>
       </c>
       <c r="C33">
-        <v>3.69215019363</v>
+        <v>3.1395088603</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
         </is>
       </c>
       <c r="C34">
-        <v>3.81553508829</v>
+        <v>4.11529604266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="C35">
-        <v>8.388406523</v>
+        <v>8.5079643991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.21686871684</v>
+        <v>1.4497782585</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -867,12 +867,12 @@
         </is>
       </c>
       <c r="C37">
-        <v>4.5443155969</v>
+        <v>4.28966790008</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -880,12 +880,12 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.09435309843</v>
+        <v>1.06681228566</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
         </is>
       </c>
       <c r="C39">
-        <v>3.79707343258</v>
+        <v>4.60580027798</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -906,12 +906,12 @@
         </is>
       </c>
       <c r="C40">
-        <v>3.02760724759</v>
+        <v>2.94526273515</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.7531169387</v>
+        <v>1.8950422247</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
         </is>
       </c>
       <c r="C42">
-        <v>2.61674835912</v>
+        <v>2.93618011644</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -945,12 +945,12 @@
         </is>
       </c>
       <c r="C43">
-        <v>3.1395088603</v>
+        <v>2.935274026</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -958,12 +958,12 @@
         </is>
       </c>
       <c r="C44">
-        <v>4.11529604266</v>
+        <v>4.75332290076</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -971,12 +971,12 @@
         </is>
       </c>
       <c r="C45">
-        <v>8.5079643991</v>
+        <v>9.038544571999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -984,12 +984,12 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.4497782585</v>
+        <v>1.428152771</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -997,12 +997,12 @@
         </is>
       </c>
       <c r="C47">
-        <v>4.28966790008</v>
+        <v>4.65174391854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.06681228566</v>
+        <v>1.30063105499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="C49">
-        <v>4.60580027798</v>
+        <v>5.4753970089</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1036,12 +1036,12 @@
         </is>
       </c>
       <c r="C50">
-        <v>2.94526273515</v>
+        <v>2.94836693167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1049,12 +1049,12 @@
         </is>
       </c>
       <c r="C51">
-        <v>1.8950422247</v>
+        <v>2.34302026099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
         </is>
       </c>
       <c r="C52">
-        <v>2.93618011644</v>
+        <v>4.442314664</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1075,12 +1075,12 @@
         </is>
       </c>
       <c r="C53">
-        <v>2.935274026</v>
+        <v>2.775390016</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1088,12 +1088,12 @@
         </is>
       </c>
       <c r="C54">
-        <v>4.75332290076</v>
+        <v>4.02408682579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
         </is>
       </c>
       <c r="C55">
-        <v>9.038544571999999</v>
+        <v>10.412162897</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1114,12 +1114,12 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.428152771</v>
+        <v>1.51502481406</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1127,12 +1127,12 @@
         </is>
       </c>
       <c r="C57">
-        <v>4.65174391854</v>
+        <v>4.43490839694</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1140,12 +1140,12 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.30063105499</v>
+        <v>1.34793791107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1153,12 +1153,12 @@
         </is>
       </c>
       <c r="C59">
-        <v>5.4753970089</v>
+        <v>5.35068781214</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1166,12 +1166,12 @@
         </is>
       </c>
       <c r="C60">
-        <v>2.94836693167</v>
+        <v>3.0999033455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="C61">
-        <v>2.34302026099</v>
+        <v>2.0924118122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1192,12 +1192,12 @@
         </is>
       </c>
       <c r="C62">
-        <v>4.442314664</v>
+        <v>5.54881132456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1205,12 +1205,12 @@
         </is>
       </c>
       <c r="C63">
-        <v>2.775390016</v>
+        <v>2.7623713349</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1218,12 +1218,12 @@
         </is>
       </c>
       <c r="C64">
-        <v>4.02408682579</v>
+        <v>4.10293102575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1231,12 +1231,12 @@
         </is>
       </c>
       <c r="C65">
-        <v>10.412162897</v>
+        <v>10.226221785</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
         </is>
       </c>
       <c r="C66">
-        <v>1.51502481406</v>
+        <v>1.27460561949</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1257,12 +1257,12 @@
         </is>
       </c>
       <c r="C67">
-        <v>4.43490839694</v>
+        <v>4.5779081177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1270,12 +1270,12 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.34793791107</v>
+        <v>1.54121676704</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1283,12 +1283,12 @@
         </is>
       </c>
       <c r="C69">
-        <v>5.35068781214</v>
+        <v>5.06074576852</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
         </is>
       </c>
       <c r="C70">
-        <v>3.0999033455</v>
+        <v>3.06828599879</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1309,12 +1309,12 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.0924118122</v>
+        <v>1.9847376881</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1322,12 +1322,12 @@
         </is>
       </c>
       <c r="C72">
-        <v>5.54881132456</v>
+        <v>3.41830911131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1335,12 +1335,12 @@
         </is>
       </c>
       <c r="C73">
-        <v>2.7623713349</v>
+        <v>7.43315468002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1348,12 +1348,12 @@
         </is>
       </c>
       <c r="C74">
-        <v>4.10293102575</v>
+        <v>7.81697486645</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1361,12 +1361,12 @@
         </is>
       </c>
       <c r="C75">
-        <v>10.226221785</v>
+        <v>10.122178889</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1374,12 +1374,12 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.27460561949</v>
+        <v>2.95964277358</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
         </is>
       </c>
       <c r="C77">
-        <v>4.5779081177</v>
+        <v>6.32141869779</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1400,12 +1400,12 @@
         </is>
       </c>
       <c r="C78">
-        <v>1.54121676704</v>
+        <v>2.2207786831</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
         </is>
       </c>
       <c r="C79">
-        <v>5.06074576852</v>
+        <v>5.112609049</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1426,12 +1426,12 @@
         </is>
       </c>
       <c r="C80">
-        <v>3.06828599879</v>
+        <v>2.33874621089</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1439,12 +1439,12 @@
         </is>
       </c>
       <c r="C81">
-        <v>1.9847376881</v>
+        <v>1.8681849147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="C82">
-        <v>3.41830911131</v>
+        <v>3.47206517181</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="C83">
-        <v>7.43315468002</v>
+        <v>7.117921576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1478,12 +1478,12 @@
         </is>
       </c>
       <c r="C84">
-        <v>7.81697486645</v>
+        <v>8.062726727899999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1491,12 +1491,12 @@
         </is>
       </c>
       <c r="C85">
-        <v>10.122178889</v>
+        <v>10.776521956</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1504,12 +1504,12 @@
         </is>
       </c>
       <c r="C86">
-        <v>2.95964277358</v>
+        <v>6.34104257288</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1517,12 +1517,12 @@
         </is>
       </c>
       <c r="C87">
-        <v>6.32141869779</v>
+        <v>10.00011902355</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.2207786831</v>
+        <v>3.2235388956</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1543,12 +1543,12 @@
         </is>
       </c>
       <c r="C89">
-        <v>5.112609049</v>
+        <v>5.34156403387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
         </is>
       </c>
       <c r="C90">
-        <v>2.33874621089</v>
+        <v>2.11734428207</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1569,12 +1569,12 @@
         </is>
       </c>
       <c r="C91">
-        <v>1.8681849147</v>
+        <v>2.130980591</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1582,12 +1582,12 @@
         </is>
       </c>
       <c r="C92">
-        <v>3.47206517181</v>
+        <v>3.1934795681</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1595,12 +1595,12 @@
         </is>
       </c>
       <c r="C93">
-        <v>7.117921576</v>
+        <v>6.728792957</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1608,12 +1608,12 @@
         </is>
       </c>
       <c r="C94">
-        <v>8.062726727899999</v>
+        <v>9.42410284044</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1621,12 +1621,12 @@
         </is>
       </c>
       <c r="C95">
-        <v>10.776521956</v>
+        <v>11.136253129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1634,12 +1634,12 @@
         </is>
       </c>
       <c r="C96">
-        <v>6.34104257288</v>
+        <v>5.554791134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
         </is>
       </c>
       <c r="C97">
-        <v>10.00011902355</v>
+        <v>8.03488632815</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1660,12 +1660,12 @@
         </is>
       </c>
       <c r="C98">
-        <v>3.2235388956</v>
+        <v>2.25032103458</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1673,12 +1673,12 @@
         </is>
       </c>
       <c r="C99">
-        <v>5.34156403387</v>
+        <v>5.10657516839</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
         </is>
       </c>
       <c r="C100">
-        <v>2.11734428207</v>
+        <v>2.1295611032</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>2.130980591</v>
+        <v>2.1270787448</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_sectors_tenyear.xlsx
+++ b/xlsx/nor_oda_sectors_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på sektorer. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
